--- a/SWMCommonData.xlsx
+++ b/SWMCommonData.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21231"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr showInkAnnotation="0" codeName="ThisWorkbook" autoCompressPictures="0" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\msmsa\Google Drive\Brightway2\Material properties\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\msardar2\Google Drive\Brightway2\Laptop_BitBucket\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{858E144C-C87F-4C55-BC91-197BA704A377}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="14020" tabRatio="789" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="25815" windowHeight="14025" tabRatio="789"/>
   </bookViews>
   <sheets>
     <sheet name="Material Properties" sheetId="26" r:id="rId1"/>
@@ -334,12 +333,12 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>James Levis</author>
   </authors>
   <commentList>
-    <comment ref="I1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
+    <comment ref="I1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -363,7 +362,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="M8" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
+    <comment ref="M8" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -376,7 +375,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="P8" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000003000000}">
+    <comment ref="P8" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -807,9 +806,6 @@
     <t>Office_Paper</t>
   </si>
   <si>
-    <t>Magazines_</t>
-  </si>
-  <si>
     <t>Folding_Containers</t>
   </si>
   <si>
@@ -991,12 +987,15 @@
   </si>
   <si>
     <t>Oxygen Content</t>
+  </si>
+  <si>
+    <t>Magazines</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="3">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="0.000"/>
@@ -1205,48 +1204,48 @@
     </xf>
   </cellXfs>
   <cellStyles count="42">
-    <cellStyle name="Comma 2" xfId="32" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
+    <cellStyle name="Comma 2" xfId="32"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 10" xfId="24" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
-    <cellStyle name="Normal 10 2" xfId="33" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
-    <cellStyle name="Normal 11" xfId="26" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
-    <cellStyle name="Normal 12" xfId="25" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
-    <cellStyle name="Normal 13" xfId="41" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
-    <cellStyle name="Normal 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000007000000}"/>
-    <cellStyle name="Normal 2 2" xfId="4" xr:uid="{00000000-0005-0000-0000-000008000000}"/>
-    <cellStyle name="Normal 2 2 2" xfId="5" xr:uid="{00000000-0005-0000-0000-000009000000}"/>
-    <cellStyle name="Normal 2 2 3" xfId="9" xr:uid="{00000000-0005-0000-0000-00000A000000}"/>
-    <cellStyle name="Normal 2 2 4" xfId="11" xr:uid="{00000000-0005-0000-0000-00000B000000}"/>
-    <cellStyle name="Normal 2 2 5" xfId="14" xr:uid="{00000000-0005-0000-0000-00000C000000}"/>
-    <cellStyle name="Normal 2 2 6" xfId="17" xr:uid="{00000000-0005-0000-0000-00000D000000}"/>
-    <cellStyle name="Normal 2 2 7" xfId="20" xr:uid="{00000000-0005-0000-0000-00000E000000}"/>
-    <cellStyle name="Normal 2 2 8" xfId="37" xr:uid="{00000000-0005-0000-0000-00000F000000}"/>
-    <cellStyle name="Normal 2 3" xfId="8" xr:uid="{00000000-0005-0000-0000-000010000000}"/>
-    <cellStyle name="Normal 2 4" xfId="7" xr:uid="{00000000-0005-0000-0000-000011000000}"/>
-    <cellStyle name="Normal 2 5" xfId="13" xr:uid="{00000000-0005-0000-0000-000012000000}"/>
-    <cellStyle name="Normal 2 6" xfId="16" xr:uid="{00000000-0005-0000-0000-000013000000}"/>
-    <cellStyle name="Normal 2 7" xfId="19" xr:uid="{00000000-0005-0000-0000-000014000000}"/>
-    <cellStyle name="Normal 3" xfId="15" xr:uid="{00000000-0005-0000-0000-000015000000}"/>
-    <cellStyle name="Normal 3 2" xfId="39" xr:uid="{00000000-0005-0000-0000-000016000000}"/>
-    <cellStyle name="Normal 3 3" xfId="29" xr:uid="{00000000-0005-0000-0000-000017000000}"/>
-    <cellStyle name="Normal 4" xfId="21" xr:uid="{00000000-0005-0000-0000-000018000000}"/>
-    <cellStyle name="Normal 4 2" xfId="35" xr:uid="{00000000-0005-0000-0000-000019000000}"/>
-    <cellStyle name="Normal 4 3" xfId="31" xr:uid="{00000000-0005-0000-0000-00001A000000}"/>
-    <cellStyle name="Normal 5" xfId="10" xr:uid="{00000000-0005-0000-0000-00001B000000}"/>
-    <cellStyle name="Normal 5 2" xfId="34" xr:uid="{00000000-0005-0000-0000-00001C000000}"/>
-    <cellStyle name="Normal 6" xfId="12" xr:uid="{00000000-0005-0000-0000-00001D000000}"/>
-    <cellStyle name="Normal 6 2" xfId="27" xr:uid="{00000000-0005-0000-0000-00001E000000}"/>
-    <cellStyle name="Normal 7" xfId="18" xr:uid="{00000000-0005-0000-0000-00001F000000}"/>
-    <cellStyle name="Normal 7 2" xfId="40" xr:uid="{00000000-0005-0000-0000-000020000000}"/>
-    <cellStyle name="Normal 8" xfId="22" xr:uid="{00000000-0005-0000-0000-000021000000}"/>
-    <cellStyle name="Normal 9" xfId="23" xr:uid="{00000000-0005-0000-0000-000022000000}"/>
-    <cellStyle name="Normal_FossilFuel" xfId="1" xr:uid="{00000000-0005-0000-0000-000023000000}"/>
-    <cellStyle name="Percent 2" xfId="3" xr:uid="{00000000-0005-0000-0000-000024000000}"/>
-    <cellStyle name="Percent 2 2" xfId="6" xr:uid="{00000000-0005-0000-0000-000025000000}"/>
-    <cellStyle name="Percent 2 2 2" xfId="38" xr:uid="{00000000-0005-0000-0000-000026000000}"/>
-    <cellStyle name="Percent 2 3" xfId="30" xr:uid="{00000000-0005-0000-0000-000027000000}"/>
-    <cellStyle name="Percent 3" xfId="36" xr:uid="{00000000-0005-0000-0000-000028000000}"/>
-    <cellStyle name="Percent 4" xfId="28" xr:uid="{00000000-0005-0000-0000-000029000000}"/>
+    <cellStyle name="Normal 10" xfId="24"/>
+    <cellStyle name="Normal 10 2" xfId="33"/>
+    <cellStyle name="Normal 11" xfId="26"/>
+    <cellStyle name="Normal 12" xfId="25"/>
+    <cellStyle name="Normal 13" xfId="41"/>
+    <cellStyle name="Normal 2" xfId="2"/>
+    <cellStyle name="Normal 2 2" xfId="4"/>
+    <cellStyle name="Normal 2 2 2" xfId="5"/>
+    <cellStyle name="Normal 2 2 3" xfId="9"/>
+    <cellStyle name="Normal 2 2 4" xfId="11"/>
+    <cellStyle name="Normal 2 2 5" xfId="14"/>
+    <cellStyle name="Normal 2 2 6" xfId="17"/>
+    <cellStyle name="Normal 2 2 7" xfId="20"/>
+    <cellStyle name="Normal 2 2 8" xfId="37"/>
+    <cellStyle name="Normal 2 3" xfId="8"/>
+    <cellStyle name="Normal 2 4" xfId="7"/>
+    <cellStyle name="Normal 2 5" xfId="13"/>
+    <cellStyle name="Normal 2 6" xfId="16"/>
+    <cellStyle name="Normal 2 7" xfId="19"/>
+    <cellStyle name="Normal 3" xfId="15"/>
+    <cellStyle name="Normal 3 2" xfId="39"/>
+    <cellStyle name="Normal 3 3" xfId="29"/>
+    <cellStyle name="Normal 4" xfId="21"/>
+    <cellStyle name="Normal 4 2" xfId="35"/>
+    <cellStyle name="Normal 4 3" xfId="31"/>
+    <cellStyle name="Normal 5" xfId="10"/>
+    <cellStyle name="Normal 5 2" xfId="34"/>
+    <cellStyle name="Normal 6" xfId="12"/>
+    <cellStyle name="Normal 6 2" xfId="27"/>
+    <cellStyle name="Normal 7" xfId="18"/>
+    <cellStyle name="Normal 7 2" xfId="40"/>
+    <cellStyle name="Normal 8" xfId="22"/>
+    <cellStyle name="Normal 9" xfId="23"/>
+    <cellStyle name="Normal_FossilFuel" xfId="1"/>
+    <cellStyle name="Percent 2" xfId="3"/>
+    <cellStyle name="Percent 2 2" xfId="6"/>
+    <cellStyle name="Percent 2 2 2" xfId="38"/>
+    <cellStyle name="Percent 2 3" xfId="30"/>
+    <cellStyle name="Percent 3" xfId="36"/>
+    <cellStyle name="Percent 4" xfId="28"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9"/>
@@ -1695,23 +1694,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -1747,23 +1729,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1939,7 +1904,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet141"/>
   <dimension ref="A1:AI65"/>
   <sheetViews>
@@ -1947,48 +1912,48 @@
       <pane xSplit="2" ySplit="5" topLeftCell="AA6" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="topRight" activeCell="D8" sqref="D8"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="AI2" sqref="AI2"/>
+      <selection pane="bottomRight" activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="50.453125" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.26953125" style="2" customWidth="1"/>
-    <col min="3" max="3" width="22.453125" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.7265625" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="19.453125" style="2" customWidth="1"/>
-    <col min="7" max="7" width="16.26953125" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16.54296875" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.453125" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="20.81640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="50.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.28515625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="22.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="19.42578125" style="2" customWidth="1"/>
+    <col min="7" max="7" width="16.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="20.85546875" style="2" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="26" style="2" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="41.453125" style="2" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="23.54296875" style="2" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="19.26953125" style="2" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="16.7265625" style="2" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="16.81640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="19.7265625" style="2" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="18.453125" style="2" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="41.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="23.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="19.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="16.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="16.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="19.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="18.42578125" style="2" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="11" style="2" customWidth="1"/>
-    <col min="20" max="20" width="10.54296875" style="2" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="12.26953125" style="2" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="10.54296875" style="2" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="12.26953125" style="2" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="12.453125" style="2" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="10.54296875" style="2" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="11.1796875" style="2" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="11.26953125" style="2" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="12.453125" style="2" bestFit="1" customWidth="1"/>
-    <col min="29" max="30" width="12.453125" style="2" customWidth="1"/>
-    <col min="31" max="31" width="10.54296875" style="2" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="13.26953125" style="2" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="11.1796875" style="2" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="10.54296875" style="2" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="16.26953125" style="2" bestFit="1" customWidth="1"/>
-    <col min="36" max="16384" width="8.81640625" style="2"/>
+    <col min="20" max="20" width="10.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="12.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="10.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="12.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="12.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="10.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="11.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="11.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="12.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="29" max="30" width="12.42578125" style="2" customWidth="1"/>
+    <col min="31" max="31" width="10.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="13.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="11.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="10.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="16.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="36" max="16384" width="8.85546875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:35" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>130</v>
       </c>
@@ -1999,40 +1964,40 @@
         <v>12</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="E1" s="4" t="s">
         <v>91</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="G1" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>190</v>
+      </c>
+      <c r="I1" s="4" t="s">
         <v>192</v>
       </c>
-      <c r="H1" s="4" t="s">
-        <v>191</v>
-      </c>
-      <c r="I1" s="4" t="s">
+      <c r="J1" s="4" t="s">
         <v>193</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="K1" s="4" t="s">
         <v>194</v>
-      </c>
-      <c r="K1" s="4" t="s">
-        <v>195</v>
       </c>
       <c r="L1" s="4" t="s">
         <v>114</v>
       </c>
       <c r="M1" s="4" t="s">
+        <v>195</v>
+      </c>
+      <c r="N1" s="4" t="s">
         <v>196</v>
       </c>
-      <c r="N1" s="4" t="s">
+      <c r="O1" s="4" t="s">
         <v>197</v>
-      </c>
-      <c r="O1" s="4" t="s">
-        <v>198</v>
       </c>
       <c r="P1" s="4" t="s">
         <v>1</v>
@@ -2092,10 +2057,10 @@
         <v>96</v>
       </c>
       <c r="AI1" s="4" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
-    <row r="2" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="5"/>
       <c r="B2" s="6" t="s">
         <v>102</v>
@@ -2198,7 +2163,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="3" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="5"/>
       <c r="B3" s="6" t="s">
         <v>11</v>
@@ -2261,7 +2226,7 @@
       <c r="AH3" s="4"/>
       <c r="AI3" s="4"/>
     </row>
-    <row r="4" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A4" s="4"/>
       <c r="B4" s="4" t="s">
         <v>11</v>
@@ -2300,7 +2265,7 @@
       <c r="AH4" s="4"/>
       <c r="AI4" s="4"/>
     </row>
-    <row r="5" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
         <v>21</v>
       </c>
@@ -2407,7 +2372,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="6" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>132</v>
       </c>
@@ -2510,7 +2475,7 @@
         <v>30.6</v>
       </c>
     </row>
-    <row r="7" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>133</v>
       </c>
@@ -2613,7 +2578,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="8" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>134</v>
       </c>
@@ -2716,9 +2681,9 @@
         <v>62.6</v>
       </c>
     </row>
-    <row r="9" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B9" s="4" t="s">
         <v>48</v>
@@ -2819,9 +2784,9 @@
         <v>300.7</v>
       </c>
     </row>
-    <row r="10" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B10" s="4" t="s">
         <v>49</v>
@@ -2922,7 +2887,7 @@
         <v>300.7</v>
       </c>
     </row>
-    <row r="11" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
         <v>19</v>
       </c>
@@ -3025,7 +2990,7 @@
         <v>11.6</v>
       </c>
     </row>
-    <row r="12" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
         <v>135</v>
       </c>
@@ -3128,7 +3093,7 @@
         <v>11.6</v>
       </c>
     </row>
-    <row r="13" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
         <v>18</v>
       </c>
@@ -3231,9 +3196,9 @@
         <v>46.4</v>
       </c>
     </row>
-    <row r="14" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B14" s="4" t="s">
         <v>52</v>
@@ -3334,7 +3299,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
         <v>15</v>
       </c>
@@ -3437,9 +3402,9 @@
         <v>74.3</v>
       </c>
     </row>
-    <row r="16" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B16" s="4" t="s">
         <v>84</v>
@@ -3540,7 +3505,7 @@
         <v>152.30000000000001</v>
       </c>
     </row>
-    <row r="17" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
         <v>136</v>
       </c>
@@ -3643,9 +3608,9 @@
         <v>217.3</v>
       </c>
     </row>
-    <row r="18" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
-        <v>137</v>
+        <v>198</v>
       </c>
       <c r="B18" s="4" t="s">
         <v>55</v>
@@ -3746,9 +3711,9 @@
         <v>84.4</v>
       </c>
     </row>
-    <row r="19" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B19" s="4" t="s">
         <v>56</v>
@@ -3849,9 +3814,9 @@
         <v>84.4</v>
       </c>
     </row>
-    <row r="20" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B20" s="4" t="s">
         <v>85</v>
@@ -3952,9 +3917,9 @@
         <v>152.30000000000001</v>
       </c>
     </row>
-    <row r="21" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B21" s="4" t="s">
         <v>86</v>
@@ -4055,9 +4020,9 @@
         <v>152.30000000000001</v>
       </c>
     </row>
-    <row r="22" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B22" s="4" t="s">
         <v>57</v>
@@ -4156,9 +4121,9 @@
         <v>145.80000000000001</v>
       </c>
     </row>
-    <row r="23" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B23" s="4" t="s">
         <v>58</v>
@@ -4259,9 +4224,9 @@
         <v>132.1</v>
       </c>
     </row>
-    <row r="24" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A24" s="4" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B24" s="4" t="s">
         <v>59</v>
@@ -4356,9 +4321,9 @@
       </c>
       <c r="AI24" s="13"/>
     </row>
-    <row r="25" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B25" s="4" t="s">
         <v>60</v>
@@ -4453,9 +4418,9 @@
       </c>
       <c r="AI25" s="13"/>
     </row>
-    <row r="26" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B26" s="4" t="s">
         <v>61</v>
@@ -4552,9 +4517,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A27" s="4" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B27" s="4" t="s">
         <v>87</v>
@@ -4647,9 +4612,9 @@
       </c>
       <c r="AI27" s="13"/>
     </row>
-    <row r="28" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A28" s="4" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B28" s="4" t="s">
         <v>88</v>
@@ -4742,9 +4707,9 @@
       <c r="AH28" s="13"/>
       <c r="AI28" s="13"/>
     </row>
-    <row r="29" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A29" s="4" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B29" s="4" t="s">
         <v>62</v>
@@ -4839,9 +4804,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A30" s="4" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B30" s="4" t="s">
         <v>63</v>
@@ -4936,9 +4901,9 @@
       </c>
       <c r="AI30" s="13"/>
     </row>
-    <row r="31" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A31" s="4" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B31" s="4" t="s">
         <v>64</v>
@@ -5035,9 +5000,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A32" s="4" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B32" s="4" t="s">
         <v>65</v>
@@ -5134,9 +5099,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A33" s="4" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B33" s="4" t="s">
         <v>66</v>
@@ -5233,9 +5198,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A34" s="4" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B34" s="4" t="s">
         <v>67</v>
@@ -5332,9 +5297,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A35" s="4" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B35" s="4" t="s">
         <v>68</v>
@@ -5431,9 +5396,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A36" s="4" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B36" s="4" t="s">
         <v>69</v>
@@ -5530,9 +5495,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A37" s="4" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B37" s="4" t="s">
         <v>70</v>
@@ -5629,9 +5594,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A38" s="4" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B38" s="4" t="s">
         <v>71</v>
@@ -5728,9 +5693,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="4" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B39" s="4" t="s">
         <v>72</v>
@@ -5827,9 +5792,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A40" s="4" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B40" s="4" t="s">
         <v>73</v>
@@ -5926,9 +5891,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A41" s="4" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B41" s="4" t="s">
         <v>74</v>
@@ -6025,9 +5990,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A42" s="4" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B42" s="4" t="s">
         <v>75</v>
@@ -6124,9 +6089,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A43" s="4" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B43" s="4" t="s">
         <v>76</v>
@@ -6223,9 +6188,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A44" s="4" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B44" s="4" t="s">
         <v>77</v>
@@ -6326,9 +6291,9 @@
         <v>124.47629928775075</v>
       </c>
     </row>
-    <row r="45" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A45" s="4" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B45" s="4" t="s">
         <v>89</v>
@@ -6425,9 +6390,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A46" s="4" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B46" s="4" t="s">
         <v>78</v>
@@ -6494,9 +6459,9 @@
       </c>
       <c r="AI46" s="4"/>
     </row>
-    <row r="47" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A47" s="4" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B47" s="4" t="s">
         <v>79</v>
@@ -6563,9 +6528,9 @@
       <c r="AH47" s="4"/>
       <c r="AI47" s="4"/>
     </row>
-    <row r="48" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A48" s="4" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B48" s="4" t="s">
         <v>80</v>
@@ -6630,9 +6595,9 @@
       <c r="AH48" s="13"/>
       <c r="AI48" s="13"/>
     </row>
-    <row r="49" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A49" s="4" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B49" s="4" t="s">
         <v>81</v>
@@ -6699,9 +6664,9 @@
       <c r="AH49" s="13"/>
       <c r="AI49" s="13"/>
     </row>
-    <row r="50" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A50" s="4" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B50" s="4" t="s">
         <v>82</v>
@@ -6768,9 +6733,9 @@
       <c r="AH50" s="4"/>
       <c r="AI50" s="4"/>
     </row>
-    <row r="51" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A51" s="4" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B51" s="4" t="s">
         <v>113</v>
@@ -6871,9 +6836,9 @@
       </c>
       <c r="AI51" s="13"/>
     </row>
-    <row r="52" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A52" s="4" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B52" s="4" t="s">
         <v>116</v>
@@ -6936,9 +6901,9 @@
       <c r="AH52" s="13"/>
       <c r="AI52" s="13"/>
     </row>
-    <row r="53" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A53" s="4" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B53" s="4" t="s">
         <v>117</v>
@@ -7001,9 +6966,9 @@
       <c r="AH53" s="13"/>
       <c r="AI53" s="13"/>
     </row>
-    <row r="54" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A54" s="4" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B54" s="4" t="s">
         <v>118</v>
@@ -7066,9 +7031,9 @@
       <c r="AH54" s="13"/>
       <c r="AI54" s="13"/>
     </row>
-    <row r="55" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A55" s="4" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B55" s="4" t="s">
         <v>119</v>
@@ -7131,9 +7096,9 @@
       <c r="AH55" s="13"/>
       <c r="AI55" s="13"/>
     </row>
-    <row r="56" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A56" s="4" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B56" s="4" t="s">
         <v>120</v>
@@ -7196,9 +7161,9 @@
       <c r="AH56" s="13"/>
       <c r="AI56" s="13"/>
     </row>
-    <row r="57" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A57" s="4" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B57" s="4" t="s">
         <v>121</v>
@@ -7261,9 +7226,9 @@
       <c r="AH57" s="13"/>
       <c r="AI57" s="13"/>
     </row>
-    <row r="58" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A58" s="4" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B58" s="4" t="s">
         <v>122</v>
@@ -7326,9 +7291,9 @@
       <c r="AH58" s="13"/>
       <c r="AI58" s="13"/>
     </row>
-    <row r="59" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A59" s="4" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B59" s="4" t="s">
         <v>123</v>
@@ -7391,9 +7356,9 @@
       <c r="AH59" s="13"/>
       <c r="AI59" s="13"/>
     </row>
-    <row r="60" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A60" s="4" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B60" s="4" t="s">
         <v>124</v>
@@ -7456,9 +7421,9 @@
       <c r="AH60" s="13"/>
       <c r="AI60" s="13"/>
     </row>
-    <row r="61" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A61" s="4" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B61" s="4" t="s">
         <v>125</v>
@@ -7521,9 +7486,9 @@
       <c r="AH61" s="13"/>
       <c r="AI61" s="13"/>
     </row>
-    <row r="62" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A62" s="4" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B62" s="4" t="s">
         <v>126</v>
@@ -7586,9 +7551,9 @@
       <c r="AH62" s="13"/>
       <c r="AI62" s="13"/>
     </row>
-    <row r="63" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A63" s="4" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B63" s="4" t="s">
         <v>127</v>
@@ -7651,9 +7616,9 @@
       <c r="AH63" s="13"/>
       <c r="AI63" s="13"/>
     </row>
-    <row r="64" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A64" s="4" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B64" s="4" t="s">
         <v>128</v>
@@ -7716,9 +7681,9 @@
       <c r="AH64" s="13"/>
       <c r="AI64" s="13"/>
     </row>
-    <row r="65" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A65" s="4" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B65" s="4" t="s">
         <v>129</v>
